--- a/ele/Blackbox/main_board/CPL.xlsx
+++ b/ele/Blackbox/main_board/CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas_Vavrinec\Documents\GitHub\SOC\ele\Blackbox\main_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2142A3E-B35A-4A6C-B7FC-23C210CF587D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D532076F-9C08-4B82-9EED-34D6116233D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E706494D-358B-4E2E-A360-CF76D7C43089}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E706494D-358B-4E2E-A360-CF76D7C43089}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="100">
   <si>
     <t>Designator</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>U$61</t>
+  </si>
+  <si>
+    <t>C75</t>
+  </si>
+  <si>
+    <t>C76</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +424,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4E70E6-3780-4FA5-B5B9-B1D576854C3B}">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K152" sqref="K152"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2326,7 @@
         <v>5</v>
       </c>
       <c r="E82" s="5">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2365,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="5">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2382,7 +2394,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="5">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,7 +2411,7 @@
         <v>5</v>
       </c>
       <c r="E87" s="5">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2457,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="E91" s="5">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2899,7 +2911,7 @@
         <v>5</v>
       </c>
       <c r="E117" s="5">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4040,6 +4052,40 @@
       </c>
       <c r="E177" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B178" s="4">
+        <v>54.61</v>
+      </c>
+      <c r="C178" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" s="8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B179" s="4">
+        <v>58.42</v>
+      </c>
+      <c r="C179" s="4">
+        <v>45.72</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="8">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
